--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/93/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/93/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.38412</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4384.12</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.75521</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>4755.21</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.07383</v>
+        <v>6.489479999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>5073.83</v>
+        <v>6489.48</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.33752</v>
+        <v>6.77033</v>
       </c>
       <c r="C9" t="n">
-        <v>5337.52</v>
+        <v>6770.33</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>5.543270000000001</v>
+        <v>7.03398</v>
       </c>
       <c r="C10" t="n">
-        <v>5543.27</v>
+        <v>7033.98</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>5.73144</v>
+        <v>7.24117</v>
       </c>
       <c r="C11" t="n">
-        <v>5731.44</v>
+        <v>7241.17</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>5.89063</v>
+        <v>7.43894</v>
       </c>
       <c r="C12" t="n">
-        <v>5890.63</v>
+        <v>7438.94</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>6.03599</v>
+        <v>7.57657</v>
       </c>
       <c r="C13" t="n">
-        <v>6035.99</v>
+        <v>7576.57</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>6.17566</v>
+        <v>7.70622</v>
       </c>
       <c r="C14" t="n">
-        <v>6175.66</v>
+        <v>7706.22</v>
       </c>
     </row>
     <row r="15">
@@ -598,43 +598,43 @@
         <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>6.292380000000001</v>
+        <v>7.82185</v>
       </c>
       <c r="C15" t="n">
-        <v>6292.38</v>
+        <v>7821.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>6.39876</v>
+        <v>7.91708</v>
       </c>
       <c r="C16" t="n">
-        <v>6398.76</v>
+        <v>7917.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>6.487439999999999</v>
+        <v>8.003550000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>6487.44</v>
+        <v>8003.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>6.57413</v>
+        <v>8.086980000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>6574.13</v>
+        <v>8086.98</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>6.65025</v>
+        <v>8.150779999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>6650.25</v>
+        <v>8150.78</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>6.712020000000001</v>
+        <v>8.21002</v>
       </c>
       <c r="C20" t="n">
-        <v>6712.02</v>
+        <v>8210.02</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>6.76529</v>
+        <v>8.265000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>6765.29</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>6.80953</v>
+        <v>8.309530000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>6809.53</v>
+        <v>8309.530000000001</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>6.84504</v>
+        <v>8.346209999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>6845.04</v>
+        <v>8346.209999999999</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>6.8711</v>
+        <v>8.377870000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>6871.1</v>
+        <v>8377.870000000001</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>6.88443</v>
+        <v>8.40451</v>
       </c>
       <c r="C25" t="n">
-        <v>6884.43</v>
+        <v>8404.51</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>6.89094</v>
+        <v>8.42651</v>
       </c>
       <c r="C26" t="n">
-        <v>6890.94</v>
+        <v>8426.51</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>6.88602</v>
+        <v>8.44397</v>
       </c>
       <c r="C27" t="n">
-        <v>6886.02</v>
+        <v>8443.969999999999</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>6.87321</v>
+        <v>8.457690000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>6873.21</v>
+        <v>8457.690000000001</v>
       </c>
     </row>
     <row r="29">
@@ -752,21 +752,21 @@
         <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>6.85324</v>
+        <v>8.469799999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>6853.24</v>
+        <v>8469.799999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>6.828720000000001</v>
+        <v>8.480040000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>6828.72</v>
+        <v>8480.040000000001</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>6.80054</v>
+        <v>8.486600000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>6800.54</v>
+        <v>8486.6</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>6.76956</v>
+        <v>8.493120000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>6769.56</v>
+        <v>8493.120000000001</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>6.73651</v>
+        <v>8.497399999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>6736.51</v>
+        <v>8497.4</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>6.70138</v>
+        <v>8.501049999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>6701.38</v>
+        <v>8501.049999999999</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>1.02431</v>
       </c>
       <c r="B35" t="n">
-        <v>6.66419</v>
+        <v>8.50351</v>
       </c>
       <c r="C35" t="n">
-        <v>6664.19</v>
+        <v>8503.51</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1.05528</v>
       </c>
       <c r="B36" t="n">
-        <v>6.62279</v>
+        <v>8.50529</v>
       </c>
       <c r="C36" t="n">
-        <v>6622.79</v>
+        <v>8505.290000000001</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1.08624</v>
       </c>
       <c r="B37" t="n">
-        <v>6.57773</v>
+        <v>8.50628</v>
       </c>
       <c r="C37" t="n">
-        <v>6577.73</v>
+        <v>8506.280000000001</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>1.11721</v>
       </c>
       <c r="B38" t="n">
-        <v>6.53009</v>
+        <v>8.506729999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>6530.09</v>
+        <v>8506.73</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1.14818</v>
       </c>
       <c r="B39" t="n">
-        <v>6.478350000000001</v>
+        <v>8.50651</v>
       </c>
       <c r="C39" t="n">
-        <v>6478.35</v>
+        <v>8506.51</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>1.17915</v>
       </c>
       <c r="B40" t="n">
-        <v>6.42433</v>
+        <v>8.50591</v>
       </c>
       <c r="C40" t="n">
-        <v>6424.33</v>
+        <v>8505.91</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>1.21012</v>
       </c>
       <c r="B41" t="n">
-        <v>6.36633</v>
+        <v>8.504760000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>6366.33</v>
+        <v>8504.76</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>1.24108</v>
       </c>
       <c r="B42" t="n">
-        <v>6.30575</v>
+        <v>8.503209999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>6305.75</v>
+        <v>8503.209999999999</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>1.27205</v>
       </c>
       <c r="B43" t="n">
-        <v>6.24242</v>
+        <v>8.50127</v>
       </c>
       <c r="C43" t="n">
-        <v>6242.42</v>
+        <v>8501.27</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>1.30302</v>
       </c>
       <c r="B44" t="n">
-        <v>6.17546</v>
+        <v>8.49893</v>
       </c>
       <c r="C44" t="n">
-        <v>6175.46</v>
+        <v>8498.93</v>
       </c>
     </row>
     <row r="45">
@@ -928,329 +928,329 @@
         <v>1.33399</v>
       </c>
       <c r="B45" t="n">
-        <v>6.10663</v>
+        <v>8.496270000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>6106.63</v>
+        <v>8496.27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36495</v>
+        <v>1.36461</v>
       </c>
       <c r="B46" t="n">
-        <v>6.03369</v>
+        <v>8.493260000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>6033.69</v>
+        <v>8493.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39592</v>
+        <v>1.39517</v>
       </c>
       <c r="B47" t="n">
-        <v>5.95938</v>
+        <v>8.489940000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>5959.38</v>
+        <v>8489.940000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42697</v>
+        <v>1.42572</v>
       </c>
       <c r="B48" t="n">
-        <v>5.45331</v>
+        <v>8.4863</v>
       </c>
       <c r="C48" t="n">
-        <v>5453.31</v>
+        <v>8486.299999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45769</v>
+        <v>1.4563</v>
       </c>
       <c r="B49" t="n">
-        <v>5.81069</v>
+        <v>8.482340000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>5810.69</v>
+        <v>8482.34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48867</v>
+        <v>1.48787</v>
       </c>
       <c r="B50" t="n">
-        <v>5.850540000000001</v>
+        <v>8.477920000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>5850.54</v>
+        <v>8477.92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51982</v>
+        <v>1.51944</v>
       </c>
       <c r="B51" t="n">
-        <v>5.65909</v>
+        <v>8.473180000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>5659.09</v>
+        <v>8473.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55047</v>
+        <v>1.55068</v>
       </c>
       <c r="B52" t="n">
-        <v>5.53063</v>
+        <v>8.46819</v>
       </c>
       <c r="C52" t="n">
-        <v>5530.63</v>
+        <v>8468.190000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58087</v>
+        <v>1.58183</v>
       </c>
       <c r="B53" t="n">
-        <v>5.413279999999999</v>
+        <v>8.46298</v>
       </c>
       <c r="C53" t="n">
-        <v>5413.28</v>
+        <v>8462.98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61127</v>
+        <v>1.61297</v>
       </c>
       <c r="B54" t="n">
-        <v>5.363</v>
+        <v>8.457520000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>5363</v>
+        <v>8457.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6421</v>
+        <v>1.64412</v>
       </c>
       <c r="B55" t="n">
-        <v>5.32716</v>
+        <v>8.451780000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>5327.16</v>
+        <v>8451.780000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67326</v>
+        <v>1.67527</v>
       </c>
       <c r="B56" t="n">
-        <v>5.16389</v>
+        <v>8.44572</v>
       </c>
       <c r="C56" t="n">
-        <v>5163.89</v>
+        <v>8445.719999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70443</v>
+        <v>1.70642</v>
       </c>
       <c r="B57" t="n">
-        <v>5.02313</v>
+        <v>8.439360000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5023.13</v>
+        <v>8439.360000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73559</v>
+        <v>1.73752</v>
       </c>
       <c r="B58" t="n">
-        <v>4.94631</v>
+        <v>8.43281</v>
       </c>
       <c r="C58" t="n">
-        <v>4946.31</v>
+        <v>8432.809999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76676</v>
+        <v>1.76824</v>
       </c>
       <c r="B59" t="n">
-        <v>4.886270000000001</v>
+        <v>8.42604</v>
       </c>
       <c r="C59" t="n">
-        <v>4886.27</v>
+        <v>8426.040000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79792</v>
+        <v>1.79896</v>
       </c>
       <c r="B60" t="n">
-        <v>4.82561</v>
+        <v>8.418959999999998</v>
       </c>
       <c r="C60" t="n">
-        <v>4825.61</v>
+        <v>8418.959999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82909</v>
+        <v>1.82968</v>
       </c>
       <c r="B61" t="n">
-        <v>4.66351</v>
+        <v>8.411580000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>4663.51</v>
+        <v>8411.58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86026</v>
+        <v>1.86041</v>
       </c>
       <c r="B62" t="n">
-        <v>4.58725</v>
+        <v>8.403870000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>4587.25</v>
+        <v>8403.870000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89142</v>
+        <v>1.89112</v>
       </c>
       <c r="B63" t="n">
-        <v>4.510020000000001</v>
+        <v>8.39598</v>
       </c>
       <c r="C63" t="n">
-        <v>4510.02</v>
+        <v>8395.98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92226</v>
+        <v>1.92184</v>
       </c>
       <c r="B64" t="n">
-        <v>4.46342</v>
+        <v>8.38782</v>
       </c>
       <c r="C64" t="n">
-        <v>4463.42</v>
+        <v>8387.82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9531</v>
+        <v>1.95256</v>
       </c>
       <c r="B65" t="n">
-        <v>4.35364</v>
+        <v>8.3794</v>
       </c>
       <c r="C65" t="n">
-        <v>4353.64</v>
+        <v>8379.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98387</v>
+        <v>1.98325</v>
       </c>
       <c r="B66" t="n">
-        <v>4.27585</v>
+        <v>8.370660000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4275.85</v>
+        <v>8370.66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01475</v>
+        <v>2.0144</v>
       </c>
       <c r="B67" t="n">
-        <v>4.22279</v>
+        <v>8.361330000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>4222.79</v>
+        <v>8361.33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04523</v>
+        <v>2.04618</v>
       </c>
       <c r="B68" t="n">
-        <v>4.15569</v>
+        <v>8.35167</v>
       </c>
       <c r="C68" t="n">
-        <v>4155.69</v>
+        <v>8351.67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0765</v>
+        <v>2.07796</v>
       </c>
       <c r="B69" t="n">
-        <v>4.07337</v>
+        <v>8.34178</v>
       </c>
       <c r="C69" t="n">
-        <v>4073.37</v>
+        <v>8341.780000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10734</v>
+        <v>2.10915</v>
       </c>
       <c r="B70" t="n">
-        <v>4.01681</v>
+        <v>8.331580000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4016.81</v>
+        <v>8331.58</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13849</v>
+        <v>2.14004</v>
       </c>
       <c r="B71" t="n">
-        <v>3.93679</v>
+        <v>8.321070000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>3936.79</v>
+        <v>8321.07</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16978</v>
+        <v>2.17094</v>
       </c>
       <c r="B72" t="n">
-        <v>3.86471</v>
+        <v>8.3101</v>
       </c>
       <c r="C72" t="n">
-        <v>3864.71</v>
+        <v>8310.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20106</v>
+        <v>2.20184</v>
       </c>
       <c r="B73" t="n">
-        <v>3.78663</v>
+        <v>8.29875</v>
       </c>
       <c r="C73" t="n">
-        <v>3786.63</v>
+        <v>8298.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23235</v>
+        <v>2.23273</v>
       </c>
       <c r="B74" t="n">
-        <v>3.70555</v>
+        <v>8.28721</v>
       </c>
       <c r="C74" t="n">
-        <v>3705.55</v>
+        <v>8287.209999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1258,307 +1258,307 @@
         <v>2.26363</v>
       </c>
       <c r="B75" t="n">
-        <v>3.66419</v>
+        <v>8.275370000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3664.19</v>
+        <v>8275.370000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29411</v>
+        <v>2.29453</v>
       </c>
       <c r="B76" t="n">
-        <v>3.62019</v>
+        <v>8.26308</v>
       </c>
       <c r="C76" t="n">
-        <v>3620.19</v>
+        <v>8263.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32541</v>
+        <v>2.32543</v>
       </c>
       <c r="B77" t="n">
-        <v>3.56746</v>
+        <v>8.25043</v>
       </c>
       <c r="C77" t="n">
-        <v>3567.46</v>
+        <v>8250.43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35685</v>
+        <v>2.35632</v>
       </c>
       <c r="B78" t="n">
-        <v>3.51636</v>
+        <v>8.237170000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>3516.36</v>
+        <v>8237.17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38716</v>
+        <v>2.38722</v>
       </c>
       <c r="B79" t="n">
-        <v>3.48702</v>
+        <v>8.22334</v>
       </c>
       <c r="C79" t="n">
-        <v>3487.02</v>
+        <v>8223.34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41906</v>
+        <v>2.41811</v>
       </c>
       <c r="B80" t="n">
-        <v>3.43137</v>
+        <v>8.208870000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3431.37</v>
+        <v>8208.870000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45044</v>
+        <v>2.44997</v>
       </c>
       <c r="B81" t="n">
-        <v>3.38578</v>
+        <v>8.193299999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>3385.78</v>
+        <v>8193.299999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48084</v>
+        <v>2.48198</v>
       </c>
       <c r="B82" t="n">
-        <v>3.35075</v>
+        <v>8.176920000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>3350.75</v>
+        <v>8176.92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51124</v>
+        <v>2.51398</v>
       </c>
       <c r="B83" t="n">
-        <v>3.30859</v>
+        <v>8.16004</v>
       </c>
       <c r="C83" t="n">
-        <v>3308.59</v>
+        <v>8160.04</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54208</v>
+        <v>2.54597</v>
       </c>
       <c r="B84" t="n">
-        <v>3.27433</v>
+        <v>8.142580000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3274.33</v>
+        <v>8142.58</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57428</v>
+        <v>2.57798</v>
       </c>
       <c r="B85" t="n">
-        <v>3.27927</v>
+        <v>8.12454</v>
       </c>
       <c r="C85" t="n">
-        <v>3279.27</v>
+        <v>8124.54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.6063</v>
+        <v>2.60997</v>
       </c>
       <c r="B86" t="n">
-        <v>3.27256</v>
+        <v>8.105970000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>3272.56</v>
+        <v>8105.97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63753</v>
+        <v>2.64198</v>
       </c>
       <c r="B87" t="n">
-        <v>3.26367</v>
+        <v>8.08666</v>
       </c>
       <c r="C87" t="n">
-        <v>3263.67</v>
+        <v>8086.66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66749</v>
+        <v>2.67398</v>
       </c>
       <c r="B88" t="n">
-        <v>3.24866</v>
+        <v>8.06668</v>
       </c>
       <c r="C88" t="n">
-        <v>3248.66</v>
+        <v>8066.68</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69736</v>
+        <v>2.70597</v>
       </c>
       <c r="B89" t="n">
-        <v>3.24651</v>
+        <v>8.04585</v>
       </c>
       <c r="C89" t="n">
-        <v>3246.51</v>
+        <v>8045.85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72722</v>
+        <v>2.73798</v>
       </c>
       <c r="B90" t="n">
-        <v>3.21029</v>
+        <v>8.02399</v>
       </c>
       <c r="C90" t="n">
-        <v>3210.29</v>
+        <v>8023.99</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75709</v>
+        <v>2.76997</v>
       </c>
       <c r="B91" t="n">
-        <v>3.2125</v>
+        <v>8.001050000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>3212.5</v>
+        <v>8001.05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78693</v>
+        <v>2.80124</v>
       </c>
       <c r="B92" t="n">
-        <v>3.21245</v>
+        <v>7.97731</v>
       </c>
       <c r="C92" t="n">
-        <v>3212.45</v>
+        <v>7977.31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81523</v>
+        <v>2.83232</v>
       </c>
       <c r="B93" t="n">
-        <v>3.17975</v>
+        <v>7.95274</v>
       </c>
       <c r="C93" t="n">
-        <v>3179.75</v>
+        <v>7952.74</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84562</v>
+        <v>2.86321</v>
       </c>
       <c r="B94" t="n">
-        <v>3.16307</v>
+        <v>7.92736</v>
       </c>
       <c r="C94" t="n">
-        <v>3163.07</v>
+        <v>7927.36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87853</v>
+        <v>2.89338</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16541</v>
+        <v>7.90125</v>
       </c>
       <c r="C95" t="n">
-        <v>3165.41</v>
+        <v>7901.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9118</v>
+        <v>2.92418</v>
       </c>
       <c r="B96" t="n">
-        <v>3.12701</v>
+        <v>7.87358</v>
       </c>
       <c r="C96" t="n">
-        <v>3127.01</v>
+        <v>7873.58</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94508</v>
+        <v>2.95584</v>
       </c>
       <c r="B97" t="n">
-        <v>3.11128</v>
+        <v>7.84351</v>
       </c>
       <c r="C97" t="n">
-        <v>3111.28</v>
+        <v>7843.51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97836</v>
+        <v>2.98735</v>
       </c>
       <c r="B98" t="n">
-        <v>3.09996</v>
+        <v>7.81237</v>
       </c>
       <c r="C98" t="n">
-        <v>3099.96</v>
+        <v>7812.37</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01091</v>
+        <v>3.01799</v>
       </c>
       <c r="B99" t="n">
-        <v>3.09361</v>
+        <v>7.78028</v>
       </c>
       <c r="C99" t="n">
-        <v>3093.61</v>
+        <v>7780.28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04193</v>
+        <v>3.04851</v>
       </c>
       <c r="B100" t="n">
-        <v>3.07546</v>
+        <v>7.74706</v>
       </c>
       <c r="C100" t="n">
-        <v>3075.46</v>
+        <v>7747.06</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07266</v>
+        <v>3.07895</v>
       </c>
       <c r="B101" t="n">
-        <v>3.05864</v>
+        <v>7.71212</v>
       </c>
       <c r="C101" t="n">
-        <v>3058.64</v>
+        <v>7712.12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10338</v>
+        <v>3.11094</v>
       </c>
       <c r="B102" t="n">
-        <v>3.04052</v>
+        <v>7.67367</v>
       </c>
       <c r="C102" t="n">
-        <v>3040.52</v>
+        <v>7673.67</v>
       </c>
     </row>
   </sheetData>
